--- a/testData/role_test_data.xlsx
+++ b/testData/role_test_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="check_rolename" sheetId="2" r:id="rId1"/>
@@ -19,13 +19,20 @@
     <sheet name="ckeck_other" sheetId="12" r:id="rId10"/>
     <sheet name="check_bulk" sheetId="13" r:id="rId11"/>
     <sheet name="login" sheetId="14" r:id="rId12"/>
+    <sheet name="role_mutex_add" sheetId="15" r:id="rId13"/>
+    <sheet name="role_mutex_mod" sheetId="16" r:id="rId14"/>
+    <sheet name="role_mutex_del" sheetId="17" r:id="rId15"/>
+    <sheet name="role_mutex_check" sheetId="18" r:id="rId16"/>
+    <sheet name="check_add_mutex" sheetId="19" r:id="rId17"/>
+    <sheet name="check_edit_mutex" sheetId="20" r:id="rId18"/>
+    <sheet name="role_query" sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
   <si>
     <t>测试点说明</t>
   </si>
@@ -79,6 +86,15 @@
   </si>
   <si>
     <t>test_F11_S30_add_001</t>
+  </si>
+  <si>
+    <t>添加超级审计员角色</t>
+  </si>
+  <si>
+    <t>超级审计员</t>
+  </si>
+  <si>
+    <t>超审</t>
   </si>
   <si>
     <t>添加部门管理员角色</t>
@@ -222,30 +238,141 @@
     <t>isomper</t>
   </si>
   <si>
+    <t xml:space="preserve">角色
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 互斥角色</t>
+  </si>
+  <si>
+    <t>添加超级管理员和部门管理员角色互斥</t>
+  </si>
+  <si>
+    <t>保存成功</t>
+  </si>
+  <si>
+    <t>test_F11_S31_add_001</t>
+  </si>
+  <si>
+    <t>添加部门管理员和超级审计员角色互斥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被编辑角色
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">被编辑角色互斥
+</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>编辑超级管理员和部门管理员角色互斥</t>
+  </si>
+  <si>
+    <t>test_F11_S31_mod_002</t>
+  </si>
+  <si>
+    <t>删除超级管理员和超级审计员角色互斥</t>
+  </si>
+  <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>test_F11_S31_del_003</t>
+  </si>
+  <si>
+    <t>删除部门管理员和超级审计员角色互斥</t>
+  </si>
+  <si>
+    <t>不选择角色和互斥角色</t>
+  </si>
+  <si>
+    <t>请选择角色</t>
+  </si>
+  <si>
+    <t>test_F11_S31_checkout_004</t>
+  </si>
+  <si>
+    <t>互斥角色列不选择</t>
+  </si>
+  <si>
+    <t>请选择互斥角色</t>
+  </si>
+  <si>
+    <t>没有保存就点击添加互斥角色</t>
+  </si>
+  <si>
+    <t>有未保存的选项，请先保存再继续添加！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用户账号
+</t>
+  </si>
+  <si>
+    <t>校验添加的超级管理员和部门管理员互斥角色</t>
+  </si>
+  <si>
+    <t>部门管理员与超级管理员互斥!</t>
+  </si>
+  <si>
+    <t>校验添加的超级审计员和部门管理员互斥角色</t>
+  </si>
+  <si>
+    <t>超级审计员与部门管理员互斥!</t>
+  </si>
+  <si>
+    <t>校验编辑的超级管理员和部门管理员互斥角色</t>
+  </si>
+  <si>
+    <t>超级审计员与部门管理员互斥!
+超级审计员与超级管理员互斥!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test_F11_S31_mod_002</t>
+  </si>
+  <si>
+    <t>角色简称</t>
+  </si>
+  <si>
+    <t>检索的角色简称框里填写填写特殊字符@#￥</t>
+  </si>
+  <si>
+    <t>@#￥</t>
+  </si>
+  <si>
+    <t>test_F11_S30_search_009</t>
+  </si>
+  <si>
+    <t>检索的角色名称框里填写特殊字符@#￥</t>
+  </si>
+  <si>
+    <t>检索的角色名称和角色简称框里没有填写任何东西</t>
+  </si>
+  <si>
+    <t>检索的角色名称框里填写部门管理员</t>
+  </si>
+  <si>
+    <t>检索的角色简称框里填写超管</t>
+  </si>
+  <si>
     <t>test_F01_login_001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -266,6 +393,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -280,162 +414,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -445,192 +435,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -666,277 +482,47 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,12 +533,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -985,57 +565,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1324,113 +857,112 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="42.75" style="22" customWidth="1"/>
-    <col min="2" max="3" width="40.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="14" style="22" customWidth="1"/>
-    <col min="5" max="5" width="30.1416666666667" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="42.75" style="24" customWidth="1"/>
+    <col min="2" max="3" width="40.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14" style="24" customWidth="1"/>
+    <col min="5" max="5" width="30.125" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="21" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="23" customFormat="1" ht="21.95" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:5" s="23" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="1" ht="20.1" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="6" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="7" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="8" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="9" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="10" s="21" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="11" s="21" customFormat="1" ht="20.1" customHeight="1"/>
+    <row r="5" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="6" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="7" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="8" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="1:5" s="23" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -1440,235 +972,778 @@
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>53</v>
+      <c r="D1" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>54</v>
+      <c r="E1" s="11" t="s">
+        <v>57</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>55</v>
+      <c r="B2" s="10" t="s">
+        <v>58</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="10"/>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
-      <c r="A3" s="6" t="s">
-        <v>56</v>
+    <row r="3" spans="1:6" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
+      <c r="B3" s="10" t="s">
+        <v>60</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="12">
         <v>0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
     <col min="2" max="2" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>58</v>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>59</v>
+      <c r="B2" s="10" t="s">
+        <v>62</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="6" max="6" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
+      <c r="C1" s="8" t="s">
+        <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>62</v>
+      <c r="E1" s="8" t="s">
+        <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>63</v>
+      <c r="A2" s="6" t="s">
+        <v>66</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
+      <c r="D2" s="6" t="s">
+        <v>67</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>65</v>
+      <c r="F2" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="33.875" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="21.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
+    <col min="2" max="2" width="37.875" customWidth="1"/>
+    <col min="3" max="3" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="46.625" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="27.5" customWidth="1"/>
+    <col min="6" max="6" width="40.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="7" max="7" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27">
+      <c r="A2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XEI11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="41.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="53.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.75" style="17" customWidth="1"/>
-    <col min="5" max="5" width="21.1916666666667" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="26.6333333333333" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="41.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="53.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26.625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16363" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:16363" ht="14.25">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:16361">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+    <row r="3" spans="1:16363">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -18026,12 +18101,12 @@
       <c r="XEF3"/>
       <c r="XEG3"/>
     </row>
-    <row r="4" spans="1:16361">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+    <row r="4" spans="1:16363">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -34389,44 +34464,44 @@
       <c r="XEF4"/>
       <c r="XEG4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+    <row r="5" spans="1:16363">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="19"/>
     </row>
-    <row r="6" ht="13" customHeight="1" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17"/>
+    <row r="6" spans="1:16363" ht="12.95" customHeight="1">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17"/>
+    <row r="7" spans="1:16363">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17"/>
+    <row r="8" spans="1:16363">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:16361">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+    <row r="9" spans="1:16363">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
@@ -50784,12 +50859,12 @@
       <c r="XEF9"/>
       <c r="XEG9"/>
     </row>
-    <row r="10" spans="1:16361">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+    <row r="10" spans="1:16363">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -67148,11 +67223,11 @@
       <c r="XEG10"/>
     </row>
     <row r="11" spans="1:16363">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
@@ -83513,22 +83588,21 @@
       <c r="XEI11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="23.875" customWidth="1"/>
@@ -83539,56 +83613,55 @@
     <col min="7" max="7" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="15" customFormat="1" ht="14.25" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>19</v>
+      <c r="C2" s="16" t="s">
+        <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>20</v>
+      <c r="D2" s="16" t="s">
+        <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.375" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
@@ -83597,62 +83670,61 @@
     <col min="6" max="6" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:6">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
-      <c r="A2" s="13" t="s">
-        <v>23</v>
+    <row r="2" spans="1:6" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>24</v>
+      <c r="D2" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>25</v>
+      <c r="E2" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>26</v>
+      <c r="F2" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
@@ -83662,56 +83734,55 @@
     <col min="7" max="7" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>27</v>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>28</v>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>31</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>24</v>
+      <c r="B2" s="15" t="s">
+        <v>27</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>29</v>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.125" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -83722,150 +83793,147 @@
     <col min="7" max="7" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:5">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>22</v>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>30</v>
+      <c r="D1" s="4" t="s">
+        <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>31</v>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>32</v>
+      <c r="B2" s="16" t="s">
+        <v>35</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>33</v>
+      <c r="E2" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="31.375" customWidth="1"/>
     <col min="2" max="3" width="53.625" customWidth="1"/>
     <col min="4" max="4" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>34</v>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>35</v>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>38</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>36</v>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>24</v>
+      <c r="C2" s="16" t="s">
+        <v>27</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
+      <c r="D2" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="50.875" customWidth="1"/>
     <col min="3" max="3" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="18.75" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="14" customFormat="1" ht="18.75">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>38</v>
+    <row r="2" spans="1:3" ht="14.25">
+      <c r="A2" s="15" t="s">
+        <v>41</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>36</v>
+      <c r="B2" s="16" t="s">
+        <v>39</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
+      <c r="C2" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="44.375" customWidth="1"/>
     <col min="2" max="2" width="34.5" customWidth="1"/>
@@ -83874,125 +83942,125 @@
     <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="18.75">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>40</v>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="10" t="s">
+        <v>43</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
+      <c r="B2" s="10" t="s">
+        <v>44</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>24</v>
+      <c r="C2" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>25</v>
+      <c r="D2" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>42</v>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="10" t="s">
+        <v>45</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>43</v>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>24</v>
+      <c r="C3" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>44</v>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="10" t="s">
+        <v>47</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
+      <c r="B4" s="10" t="s">
+        <v>48</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>24</v>
+      <c r="C4" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>46</v>
+      <c r="D4" s="12" t="s">
+        <v>49</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>47</v>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
+      <c r="C5" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="10" t="s">
+        <v>51</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>49</v>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
+      <c r="C6" s="12" t="s">
+        <v>53</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>25</v>
+      <c r="D6" s="12" t="s">
+        <v>28</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>51</v>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="10" t="s">
+        <v>54</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>52</v>
+      <c r="B7" s="10" t="s">
+        <v>55</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
+      <c r="C7" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>24</v>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>